--- a/Code/Results/Cases/Case_1_254/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_254/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9589825751707508</v>
+        <v>1.049101265588916</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08809938905408643</v>
+        <v>0.1924808555325725</v>
       </c>
       <c r="E2">
-        <v>0.09123617592055844</v>
+        <v>0.2277992248769998</v>
       </c>
       <c r="F2">
-        <v>0.9166808536440811</v>
+        <v>1.882514647723873</v>
       </c>
       <c r="G2">
-        <v>0.0008240715706135173</v>
+        <v>0.002498220423063922</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1357558872425741</v>
+        <v>0.3146177846317011</v>
       </c>
       <c r="K2">
-        <v>1.262597112065151</v>
+        <v>0.4012938604552971</v>
       </c>
       <c r="L2">
-        <v>0.2656930054220084</v>
+        <v>0.1503062103076473</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.295839280507153</v>
+        <v>4.671985175936385</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8526111345896084</v>
+        <v>1.023879288246235</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08382266673419991</v>
+        <v>0.1922032250418582</v>
       </c>
       <c r="E3">
-        <v>0.09269059962413984</v>
+        <v>0.2292256054191153</v>
       </c>
       <c r="F3">
-        <v>0.9028095585514819</v>
+        <v>1.891121815335779</v>
       </c>
       <c r="G3">
-        <v>0.00082812493109367</v>
+        <v>0.002500896661608302</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1402589505405176</v>
+        <v>0.3170678202612676</v>
       </c>
       <c r="K3">
-        <v>1.104795184913456</v>
+        <v>0.3523913072544929</v>
       </c>
       <c r="L3">
-        <v>0.2309171441340965</v>
+        <v>0.1404689338976084</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.271904850276513</v>
+        <v>4.697265035710018</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7879006781442399</v>
+        <v>1.008803515631655</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.08127182445036141</v>
+        <v>0.1920927122406439</v>
       </c>
       <c r="E4">
-        <v>0.09367916419269307</v>
+        <v>0.2301681925408392</v>
       </c>
       <c r="F4">
-        <v>0.8958476785252643</v>
+        <v>1.897281754352413</v>
       </c>
       <c r="G4">
-        <v>0.0008306979931270855</v>
+        <v>0.002502628719015291</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1431576173884439</v>
+        <v>0.3186582457664624</v>
       </c>
       <c r="K4">
-        <v>1.007921207847403</v>
+        <v>0.3223164720430418</v>
       </c>
       <c r="L4">
-        <v>0.2096192721230778</v>
+        <v>0.1344635467498136</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.261448424928801</v>
+        <v>4.715064530342488</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7616693813798747</v>
+        <v>1.002763880005034</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.08025058286447262</v>
+        <v>0.1920628071258719</v>
       </c>
       <c r="E5">
-        <v>0.09410568574959388</v>
+        <v>0.2305691276605781</v>
       </c>
       <c r="F5">
-        <v>0.8933867204774728</v>
+        <v>1.900012186019495</v>
       </c>
       <c r="G5">
-        <v>0.0008317680943623145</v>
+        <v>0.002503356951225777</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.144372154609635</v>
+        <v>0.3193280369804636</v>
       </c>
       <c r="K5">
-        <v>0.9684353281713811</v>
+        <v>0.3100492558761516</v>
       </c>
       <c r="L5">
-        <v>0.2009507485131223</v>
+        <v>0.1320252083475424</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.258210852188682</v>
+        <v>4.722890870556171</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.757321717280206</v>
+        <v>1.001767294220059</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08008209067845939</v>
+        <v>0.1920587567926901</v>
       </c>
       <c r="E6">
-        <v>0.09417792913680056</v>
+        <v>0.2306367195916081</v>
       </c>
       <c r="F6">
-        <v>0.8930003689182726</v>
+        <v>1.90047887659874</v>
       </c>
       <c r="G6">
-        <v>0.0008319470962537522</v>
+        <v>0.002503479228763695</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1445758298482822</v>
+        <v>0.3194405656245936</v>
       </c>
       <c r="K6">
-        <v>0.9618778162971751</v>
+        <v>0.3080116218447984</v>
       </c>
       <c r="L6">
-        <v>0.1995118927038249</v>
+        <v>0.1316208670070438</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.257733868709892</v>
+        <v>4.724225035871541</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7875463681744748</v>
+        <v>1.008721641641529</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08125797855915096</v>
+        <v>0.1920922475974507</v>
       </c>
       <c r="E7">
-        <v>0.09368482101221609</v>
+        <v>0.2301735315355415</v>
       </c>
       <c r="F7">
-        <v>0.8958129857976118</v>
+        <v>1.897317686097615</v>
       </c>
       <c r="G7">
-        <v>0.000830712337230756</v>
+        <v>0.002502638449381906</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1431738626288723</v>
+        <v>0.3186671909824002</v>
       </c>
       <c r="K7">
-        <v>1.007388740596497</v>
+        <v>0.3221510775974821</v>
       </c>
       <c r="L7">
-        <v>0.2095023268423404</v>
+        <v>0.134430626180432</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.261400672437532</v>
+        <v>4.715167759200028</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9221728940838716</v>
+        <v>1.040319858066056</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08660879966838309</v>
+        <v>0.1923727171277321</v>
       </c>
       <c r="E8">
-        <v>0.09171761552823199</v>
+        <v>0.2282771979270919</v>
       </c>
       <c r="F8">
-        <v>0.9115660052724479</v>
+        <v>1.885300862294073</v>
       </c>
       <c r="G8">
-        <v>0.0008254519007188023</v>
+        <v>0.002499124792152703</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1372805779103778</v>
+        <v>0.3154447069543256</v>
       </c>
       <c r="K8">
-        <v>1.208175206197524</v>
+        <v>0.3844427308827107</v>
       </c>
       <c r="L8">
-        <v>0.253688945462315</v>
+        <v>0.1469072055153333</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.286680536884745</v>
+        <v>4.680229074780272</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.191569702878724</v>
+        <v>1.10551927782825</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09772823129416963</v>
+        <v>0.1933962227372987</v>
       </c>
       <c r="E9">
-        <v>0.08863454941076121</v>
+        <v>0.225087059275296</v>
       </c>
       <c r="F9">
-        <v>0.9555127044829987</v>
+        <v>1.868673689125885</v>
       </c>
       <c r="G9">
-        <v>0.0008157875760871032</v>
+        <v>0.002492936371468923</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1268005122930731</v>
+        <v>0.3098070876127057</v>
       </c>
       <c r="K9">
-        <v>1.602708831027485</v>
+        <v>0.5061866232550472</v>
       </c>
       <c r="L9">
-        <v>0.340930900207951</v>
+        <v>0.1716432306670015</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.371922678117642</v>
+        <v>4.629779819058029</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.393714956936776</v>
+        <v>1.155369187544437</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1063256734172029</v>
+        <v>0.1944341541984969</v>
       </c>
       <c r="E10">
-        <v>0.086865685475912</v>
+        <v>0.2230636722501611</v>
       </c>
       <c r="F10">
-        <v>0.9968163482590313</v>
+        <v>1.860680927304443</v>
       </c>
       <c r="G10">
-        <v>0.0008090586861478245</v>
+        <v>0.002488813370109475</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1197790067325482</v>
+        <v>0.3060785961477785</v>
       </c>
       <c r="K10">
-        <v>1.894059673309499</v>
+        <v>0.5953568830431664</v>
       </c>
       <c r="L10">
-        <v>0.4056299492513773</v>
+        <v>0.1899747243146521</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.459295811818578</v>
+        <v>4.603723378963593</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.486814797141051</v>
+        <v>1.178465370462987</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1103407541359758</v>
+        <v>0.1949678758126296</v>
       </c>
       <c r="E11">
-        <v>0.08617437065176858</v>
+        <v>0.2222123696389993</v>
       </c>
       <c r="F11">
-        <v>1.01781565339536</v>
+        <v>1.857960639214639</v>
       </c>
       <c r="G11">
-        <v>0.0008060721992777884</v>
+        <v>0.00248702879671708</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.116737130446162</v>
+        <v>0.3044717425038312</v>
       </c>
       <c r="K11">
-        <v>2.027168355301001</v>
+        <v>0.6358582956055727</v>
       </c>
       <c r="L11">
-        <v>0.4352522231284723</v>
+        <v>0.1983472701045343</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.505132728848849</v>
+        <v>4.594259377394224</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.522253180991697</v>
+        <v>1.187271047058402</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1118770819451029</v>
+        <v>0.195178784077207</v>
       </c>
       <c r="E12">
-        <v>0.08592938814423867</v>
+        <v>0.2218999166828315</v>
       </c>
       <c r="F12">
-        <v>1.026107850594258</v>
+        <v>1.857062085888728</v>
       </c>
       <c r="G12">
-        <v>0.0008049514872986214</v>
+        <v>0.002486366043117957</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1156076122916474</v>
+        <v>0.303876071918503</v>
       </c>
       <c r="K12">
-        <v>2.077676698892503</v>
+        <v>0.6511855355721252</v>
       </c>
       <c r="L12">
-        <v>0.4465018969627863</v>
+        <v>0.2015224025355025</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.523429990234007</v>
+        <v>4.591019070031138</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.514612410400844</v>
+        <v>1.185371943937156</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1115454832839688</v>
+        <v>0.1951329706919154</v>
       </c>
       <c r="E13">
-        <v>0.08598139382831427</v>
+        <v>0.2219667683797404</v>
       </c>
       <c r="F13">
-        <v>1.024306472385987</v>
+        <v>1.8572497559813</v>
       </c>
       <c r="G13">
-        <v>0.0008051924072521131</v>
+        <v>0.002486508200648881</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1158498711324327</v>
+        <v>0.3040037909019375</v>
       </c>
       <c r="K13">
-        <v>2.066793895498705</v>
+        <v>0.6478849867071688</v>
       </c>
       <c r="L13">
-        <v>0.4440775555557224</v>
+        <v>0.2008383778482283</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.519446479738349</v>
+        <v>4.591701651702493</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.489726542245847</v>
+        <v>1.17918862682663</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1104668244009375</v>
+        <v>0.1949850513104465</v>
       </c>
       <c r="E14">
-        <v>0.08615387603450486</v>
+        <v>0.2221864653475798</v>
       </c>
       <c r="F14">
-        <v>1.018490904953708</v>
+        <v>1.857884078650173</v>
       </c>
       <c r="G14">
-        <v>0.0008059797961801604</v>
+        <v>0.00248697401101119</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.116643753023725</v>
+        <v>0.3044224797363428</v>
       </c>
       <c r="K14">
-        <v>2.031321518632978</v>
+        <v>0.6371194769611179</v>
       </c>
       <c r="L14">
-        <v>0.4361770620404855</v>
+        <v>0.1986083983764075</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.506618836955909</v>
+        <v>4.593985911360249</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.474507717437177</v>
+        <v>1.175408916568927</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1098082148245965</v>
+        <v>0.1948955908002432</v>
       </c>
       <c r="E15">
-        <v>0.08626173013349714</v>
+        <v>0.2223223267744867</v>
       </c>
       <c r="F15">
-        <v>1.014973700468687</v>
+        <v>1.858289749420479</v>
       </c>
       <c r="G15">
-        <v>0.0008064634080807591</v>
+        <v>0.002487261027649936</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1171329572286206</v>
+        <v>0.3046806062448182</v>
       </c>
       <c r="K15">
-        <v>2.009607717802595</v>
+        <v>0.6305239969043441</v>
       </c>
       <c r="L15">
-        <v>0.4313421507021218</v>
+        <v>0.1972430693280671</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.498885906386306</v>
+        <v>4.595429819002277</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.387655267671221</v>
+        <v>1.153868179474529</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1060654513529258</v>
+        <v>0.1944005084755318</v>
       </c>
       <c r="E16">
-        <v>0.08691318780864243</v>
+        <v>0.2231206960288983</v>
       </c>
       <c r="F16">
-        <v>0.9954903465056759</v>
+        <v>1.860877120545766</v>
       </c>
       <c r="G16">
-        <v>0.0008092553167179365</v>
+        <v>0.002488931822081308</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1199809045471918</v>
+        <v>0.3061854017374168</v>
       </c>
       <c r="K16">
-        <v>1.885373950580657</v>
+        <v>0.5927086955047116</v>
       </c>
       <c r="L16">
-        <v>0.4036983122079647</v>
+        <v>0.1894282165934129</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.456428184833186</v>
+        <v>4.604389945509809</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.334680032915116</v>
+        <v>1.140760556780435</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1037966889677122</v>
+        <v>0.1941125211072858</v>
       </c>
       <c r="E17">
-        <v>0.0873422168444602</v>
+        <v>0.2236281609976789</v>
       </c>
       <c r="F17">
-        <v>0.9841194470358658</v>
+        <v>1.862698833153729</v>
       </c>
       <c r="G17">
-        <v>0.000810986795519537</v>
+        <v>0.002489980064645471</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1217673546815838</v>
+        <v>0.3071313878290791</v>
       </c>
       <c r="K17">
-        <v>1.809321259921035</v>
+        <v>0.569493656745351</v>
       </c>
       <c r="L17">
-        <v>0.3867918976623486</v>
+        <v>0.1846424984210984</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.431985775386664</v>
+        <v>4.610498582987162</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.304316434102844</v>
+        <v>1.133260894270251</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1025014916646825</v>
+        <v>0.1939526759982186</v>
       </c>
       <c r="E18">
-        <v>0.08759962018363865</v>
+        <v>0.2239265513685194</v>
       </c>
       <c r="F18">
-        <v>0.9777857966565762</v>
+        <v>1.863832826850867</v>
       </c>
       <c r="G18">
-        <v>0.0008119897427375594</v>
+        <v>0.002490591555139481</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1228091727152165</v>
+        <v>0.3076838966618594</v>
       </c>
       <c r="K18">
-        <v>1.765630240620737</v>
+        <v>0.5561351351332462</v>
       </c>
       <c r="L18">
-        <v>0.3770853712730116</v>
+        <v>0.1818930397903671</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.418496313042681</v>
+        <v>4.614236996486994</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.294053546701207</v>
+        <v>1.130728439952264</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1020646044499713</v>
+        <v>0.1938995525513292</v>
       </c>
       <c r="E19">
-        <v>0.08768858461032991</v>
+        <v>0.22402870011231</v>
       </c>
       <c r="F19">
-        <v>0.9756761561159948</v>
+        <v>1.864231584673234</v>
       </c>
       <c r="G19">
-        <v>0.000812330548694562</v>
+        <v>0.002490800068810766</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1231643560784725</v>
+        <v>0.3078724105841593</v>
       </c>
       <c r="K19">
-        <v>1.75084561858867</v>
+        <v>0.5516111887168336</v>
       </c>
       <c r="L19">
-        <v>0.3738017844930539</v>
+        <v>0.1809626685529082</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.414024891053657</v>
+        <v>4.615541385406971</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.340308195429003</v>
+        <v>1.142151802527138</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1040371884710964</v>
+        <v>0.1941425782083641</v>
       </c>
       <c r="E20">
-        <v>0.08729544150874702</v>
+        <v>0.2235734669217955</v>
       </c>
       <c r="F20">
-        <v>0.9853083600578714</v>
+        <v>1.862495988899838</v>
       </c>
       <c r="G20">
-        <v>0.0008108017509682226</v>
+        <v>0.002489867591000033</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1215757007064528</v>
+        <v>0.307029816532447</v>
       </c>
       <c r="K20">
-        <v>1.817411622239632</v>
+        <v>0.5719655477860783</v>
       </c>
       <c r="L20">
-        <v>0.3885897582894557</v>
+        <v>0.1851516205619959</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.434528356039408</v>
+        <v>4.6098250335844</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.497030985568273</v>
+        <v>1.181003202970885</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1107832132278332</v>
+        <v>0.1950282604252251</v>
       </c>
       <c r="E21">
-        <v>0.08610275362449649</v>
+        <v>0.2221216660907093</v>
       </c>
       <c r="F21">
-        <v>1.020189658173294</v>
+        <v>1.857694193064006</v>
       </c>
       <c r="G21">
-        <v>0.00080574824826827</v>
+        <v>0.002486836838092315</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.116409959443212</v>
+        <v>0.3042991532131749</v>
       </c>
       <c r="K21">
-        <v>2.041737647318683</v>
+        <v>0.6402818392657537</v>
       </c>
       <c r="L21">
-        <v>0.4384967085363201</v>
+        <v>0.1992632731487873</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.510360586914743</v>
+        <v>4.593305646793254</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.600537830037666</v>
+        <v>1.206742254273252</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1152853130962015</v>
+        <v>0.1956583705378492</v>
       </c>
       <c r="E22">
-        <v>0.0854214622359315</v>
+        <v>0.221230621283425</v>
       </c>
       <c r="F22">
-        <v>1.044981215795104</v>
+        <v>1.855322727215153</v>
       </c>
       <c r="G22">
-        <v>0.0008025047179902466</v>
+        <v>0.002484931960525472</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1131645095091907</v>
+        <v>0.3025891620782994</v>
       </c>
       <c r="K22">
-        <v>2.18895871501303</v>
+        <v>0.6848732086495772</v>
       </c>
       <c r="L22">
-        <v>0.471305011032257</v>
+        <v>0.208512964150259</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.565432430799831</v>
+        <v>4.584511451907929</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.545188821054865</v>
+        <v>1.192973256827344</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1128736040421359</v>
+        <v>0.1953173955717133</v>
       </c>
       <c r="E23">
-        <v>0.08577592058945349</v>
+        <v>0.2217009094488738</v>
       </c>
       <c r="F23">
-        <v>1.031559159657746</v>
+        <v>1.85651829871135</v>
       </c>
       <c r="G23">
-        <v>0.000804230609114943</v>
+        <v>0.002485941705102353</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.114884544555875</v>
+        <v>0.3034949937305118</v>
       </c>
       <c r="K23">
-        <v>2.110320859084226</v>
+        <v>0.6610794485155793</v>
       </c>
       <c r="L23">
-        <v>0.4537753550360151</v>
+        <v>0.2035738269920984</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.53551289811503</v>
+        <v>4.589021899773314</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.337763416254575</v>
+        <v>1.141522707879318</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1039284302330898</v>
+        <v>0.1941289715645595</v>
       </c>
       <c r="E24">
-        <v>0.08731655519555126</v>
+        <v>0.2235981734226726</v>
       </c>
       <c r="F24">
-        <v>0.9847702198906632</v>
+        <v>1.862587424815302</v>
       </c>
       <c r="G24">
-        <v>0.0008108853862247176</v>
+        <v>0.002489918412869226</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1216623015180733</v>
+        <v>0.3070757099734607</v>
       </c>
       <c r="K24">
-        <v>1.813753869176907</v>
+        <v>0.5708480428164364</v>
       </c>
       <c r="L24">
-        <v>0.387776904768188</v>
+        <v>0.1849214404661694</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.433377107101819</v>
+        <v>4.610128839796801</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.118020775885753</v>
+        <v>1.087537274237974</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09464847423640066</v>
+        <v>0.1930689250258695</v>
       </c>
       <c r="E25">
-        <v>0.08938326950823949</v>
+        <v>0.2258936782250114</v>
       </c>
       <c r="F25">
-        <v>0.9421212337500009</v>
+        <v>1.8724296864252</v>
       </c>
       <c r="G25">
-        <v>0.0008183348585559244</v>
+        <v>0.002494535804938814</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1295182066452654</v>
+        <v>0.3112594535078248</v>
       </c>
       <c r="K25">
-        <v>1.495792928056062</v>
+        <v>0.4732981652443016</v>
       </c>
       <c r="L25">
-        <v>0.3172423476958812</v>
+        <v>0.1649232895029655</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.34474582279708</v>
+        <v>4.641494119915365</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_254/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_254/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049101265588916</v>
+        <v>0.958982575170694</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1924808555325725</v>
+        <v>0.08809938905415038</v>
       </c>
       <c r="E2">
-        <v>0.2277992248769998</v>
+        <v>0.09123617592054245</v>
       </c>
       <c r="F2">
-        <v>1.882514647723873</v>
+        <v>0.916680853644074</v>
       </c>
       <c r="G2">
-        <v>0.002498220423063922</v>
+        <v>0.0008240715706494927</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3146177846317011</v>
+        <v>0.1357558872426337</v>
       </c>
       <c r="K2">
-        <v>0.4012938604552971</v>
+        <v>1.262597112065322</v>
       </c>
       <c r="L2">
-        <v>0.1503062103076473</v>
+        <v>0.2656930054220936</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.671985175936385</v>
+        <v>2.295839280507238</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.023879288246235</v>
+        <v>0.8526111345894662</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1922032250418582</v>
+        <v>0.08382266673407202</v>
       </c>
       <c r="E3">
-        <v>0.2292256054191153</v>
+        <v>0.09269059962411141</v>
       </c>
       <c r="F3">
-        <v>1.891121815335779</v>
+        <v>0.9028095585514677</v>
       </c>
       <c r="G3">
-        <v>0.002500896661608302</v>
+        <v>0.0008281249309761507</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3170678202612676</v>
+        <v>0.1402589505404759</v>
       </c>
       <c r="K3">
-        <v>0.3523913072544929</v>
+        <v>1.104795184913456</v>
       </c>
       <c r="L3">
-        <v>0.1404689338976084</v>
+        <v>0.2309171441341817</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.697265035710018</v>
+        <v>2.271904850276485</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.008803515631655</v>
+        <v>0.7879006781442115</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1920927122406439</v>
+        <v>0.08127182445013403</v>
       </c>
       <c r="E4">
-        <v>0.2301681925408392</v>
+        <v>0.09367916419265754</v>
       </c>
       <c r="F4">
-        <v>1.897281754352413</v>
+        <v>0.89584767852525</v>
       </c>
       <c r="G4">
-        <v>0.002502628719015291</v>
+        <v>0.0008306979932046446</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3186582457664624</v>
+        <v>0.1431576173884128</v>
       </c>
       <c r="K4">
-        <v>0.3223164720430418</v>
+        <v>1.007921207847403</v>
       </c>
       <c r="L4">
-        <v>0.1344635467498136</v>
+        <v>0.2096192721231347</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.715064530342488</v>
+        <v>2.261448424928801</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.002763880005034</v>
+        <v>0.7616693813799316</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1920628071258719</v>
+        <v>0.08025058286428077</v>
       </c>
       <c r="E5">
-        <v>0.2305691276605781</v>
+        <v>0.0941056857496072</v>
       </c>
       <c r="F5">
-        <v>1.900012186019495</v>
+        <v>0.8933867204774373</v>
       </c>
       <c r="G5">
-        <v>0.002503356951225777</v>
+        <v>0.0008317680944012278</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3193280369804636</v>
+        <v>0.1443721546096475</v>
       </c>
       <c r="K5">
-        <v>0.3100492558761516</v>
+        <v>0.9684353281714095</v>
       </c>
       <c r="L5">
-        <v>0.1320252083475424</v>
+        <v>0.2009507485131508</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.722890870556171</v>
+        <v>2.258210852188625</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.001767294220059</v>
+        <v>0.7573217172801492</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1920587567926901</v>
+        <v>0.08008209067857308</v>
       </c>
       <c r="E6">
-        <v>0.2306367195916081</v>
+        <v>0.09417792913683076</v>
       </c>
       <c r="F6">
-        <v>1.90047887659874</v>
+        <v>0.8930003689182868</v>
       </c>
       <c r="G6">
-        <v>0.002503479228763695</v>
+        <v>0.0008319470961941783</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3194405656245936</v>
+        <v>0.1445758298482813</v>
       </c>
       <c r="K6">
-        <v>0.3080116218447984</v>
+        <v>0.9618778162970898</v>
       </c>
       <c r="L6">
-        <v>0.1316208670070438</v>
+        <v>0.1995118927038959</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.724225035871541</v>
+        <v>2.25773386870992</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.008721641641529</v>
+        <v>0.7875463681744748</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1920922475974507</v>
+        <v>0.08125797855916517</v>
       </c>
       <c r="E7">
-        <v>0.2301735315355415</v>
+        <v>0.09368482101221964</v>
       </c>
       <c r="F7">
-        <v>1.897317686097615</v>
+        <v>0.8958129857976118</v>
       </c>
       <c r="G7">
-        <v>0.002502638449381906</v>
+        <v>0.000830712337150652</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3186671909824002</v>
+        <v>0.143173862628915</v>
       </c>
       <c r="K7">
-        <v>0.3221510775974821</v>
+        <v>1.007388740596582</v>
       </c>
       <c r="L7">
-        <v>0.134430626180432</v>
+        <v>0.2095023268423972</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.715167759200028</v>
+        <v>2.261400672437418</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.040319858066056</v>
+        <v>0.9221728940840421</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1923727171277321</v>
+        <v>0.0866087996682694</v>
       </c>
       <c r="E8">
-        <v>0.2282771979270919</v>
+        <v>0.09171761552821955</v>
       </c>
       <c r="F8">
-        <v>1.885300862294073</v>
+        <v>0.9115660052724337</v>
       </c>
       <c r="G8">
-        <v>0.002499124792152703</v>
+        <v>0.0008254519007196657</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3154447069543256</v>
+        <v>0.1372805779103947</v>
       </c>
       <c r="K8">
-        <v>0.3844427308827107</v>
+        <v>1.208175206197382</v>
       </c>
       <c r="L8">
-        <v>0.1469072055153333</v>
+        <v>0.2536889454623434</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.680229074780272</v>
+        <v>2.286680536884688</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.10551927782825</v>
+        <v>1.191569702878752</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1933962227372987</v>
+        <v>0.09772823129411989</v>
       </c>
       <c r="E9">
-        <v>0.225087059275296</v>
+        <v>0.08863454941076299</v>
       </c>
       <c r="F9">
-        <v>1.868673689125885</v>
+        <v>0.9555127044829916</v>
       </c>
       <c r="G9">
-        <v>0.002492936371468923</v>
+        <v>0.0008157875760588166</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3098070876127057</v>
+        <v>0.126800512293153</v>
       </c>
       <c r="K9">
-        <v>0.5061866232550472</v>
+        <v>1.602708831027513</v>
       </c>
       <c r="L9">
-        <v>0.1716432306670015</v>
+        <v>0.3409309002078658</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.629779819058029</v>
+        <v>2.37192267811767</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.155369187544437</v>
+        <v>1.393714956936606</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1944341541984969</v>
+        <v>0.1063256734173947</v>
       </c>
       <c r="E10">
-        <v>0.2230636722501611</v>
+        <v>0.08686568547590134</v>
       </c>
       <c r="F10">
-        <v>1.860680927304443</v>
+        <v>0.9968163482590313</v>
       </c>
       <c r="G10">
-        <v>0.002488813370109475</v>
+        <v>0.0008090586861483183</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3060785961477785</v>
+        <v>0.1197790067325908</v>
       </c>
       <c r="K10">
-        <v>0.5953568830431664</v>
+        <v>1.894059673309528</v>
       </c>
       <c r="L10">
-        <v>0.1899747243146521</v>
+        <v>0.4056299492512636</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.603723378963593</v>
+        <v>2.459295811818578</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.178465370462987</v>
+        <v>1.486814797141392</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1949678758126296</v>
+        <v>0.110340754135855</v>
       </c>
       <c r="E11">
-        <v>0.2222123696389993</v>
+        <v>0.08617437065177036</v>
       </c>
       <c r="F11">
-        <v>1.857960639214639</v>
+        <v>1.017815653395374</v>
       </c>
       <c r="G11">
-        <v>0.00248702879671708</v>
+        <v>0.0008060721993946508</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3044717425038312</v>
+        <v>0.1167371304461815</v>
       </c>
       <c r="K11">
-        <v>0.6358582956055727</v>
+        <v>2.027168355300887</v>
       </c>
       <c r="L11">
-        <v>0.1983472701045343</v>
+        <v>0.435252223128515</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.594259377394224</v>
+        <v>2.505132728848821</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.187271047058402</v>
+        <v>1.522253180991612</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.195178784077207</v>
+        <v>0.1118770819451669</v>
       </c>
       <c r="E12">
-        <v>0.2218999166828315</v>
+        <v>0.08592938814424045</v>
       </c>
       <c r="F12">
-        <v>1.857062085888728</v>
+        <v>1.026107850594258</v>
       </c>
       <c r="G12">
-        <v>0.002486366043117957</v>
+        <v>0.0008049514872984097</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.303876071918503</v>
+        <v>0.1156076122916314</v>
       </c>
       <c r="K12">
-        <v>0.6511855355721252</v>
+        <v>2.077676698892446</v>
       </c>
       <c r="L12">
-        <v>0.2015224025355025</v>
+        <v>0.4465018969628147</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.591019070031138</v>
+        <v>2.52342999023395</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.185371943937156</v>
+        <v>1.514612410400844</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1951329706919154</v>
+        <v>0.1115454832838552</v>
       </c>
       <c r="E13">
-        <v>0.2219667683797404</v>
+        <v>0.08598139382831782</v>
       </c>
       <c r="F13">
-        <v>1.8572497559813</v>
+        <v>1.024306472385987</v>
       </c>
       <c r="G13">
-        <v>0.002486508200648881</v>
+        <v>0.0008051924072818661</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3040037909019375</v>
+        <v>0.1158498711324034</v>
       </c>
       <c r="K13">
-        <v>0.6478849867071688</v>
+        <v>2.066793895498819</v>
       </c>
       <c r="L13">
-        <v>0.2008383778482283</v>
+        <v>0.4440775555557366</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.591701651702493</v>
+        <v>2.519446479738377</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.17918862682663</v>
+        <v>1.489726542245734</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1949850513104465</v>
+        <v>0.1104668244009375</v>
       </c>
       <c r="E14">
-        <v>0.2221864653475798</v>
+        <v>0.08615387603450664</v>
       </c>
       <c r="F14">
-        <v>1.857884078650173</v>
+        <v>1.018490904953694</v>
       </c>
       <c r="G14">
-        <v>0.00248697401101119</v>
+        <v>0.000805979796238241</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3044224797363428</v>
+        <v>0.1166437530237632</v>
       </c>
       <c r="K14">
-        <v>0.6371194769611179</v>
+        <v>2.031321518632922</v>
       </c>
       <c r="L14">
-        <v>0.1986083983764075</v>
+        <v>0.4361770620404855</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.593985911360249</v>
+        <v>2.506618836955852</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.175408916568927</v>
+        <v>1.474507717437234</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1948955908002432</v>
+        <v>0.1098082148245467</v>
       </c>
       <c r="E15">
-        <v>0.2223223267744867</v>
+        <v>0.08626173013349714</v>
       </c>
       <c r="F15">
-        <v>1.858289749420479</v>
+        <v>1.014973700468673</v>
       </c>
       <c r="G15">
-        <v>0.002487261027649936</v>
+        <v>0.0008064634080232019</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3046806062448182</v>
+        <v>0.1171329572286544</v>
       </c>
       <c r="K15">
-        <v>0.6305239969043441</v>
+        <v>2.009607717802652</v>
       </c>
       <c r="L15">
-        <v>0.1972430693280671</v>
+        <v>0.4313421507021218</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.595429819002277</v>
+        <v>2.498885906386306</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.153868179474529</v>
+        <v>1.387655267671221</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1944005084755318</v>
+        <v>0.1060654513529755</v>
       </c>
       <c r="E16">
-        <v>0.2231206960288983</v>
+        <v>0.08691318780864066</v>
       </c>
       <c r="F16">
-        <v>1.860877120545766</v>
+        <v>0.9954903465056617</v>
       </c>
       <c r="G16">
-        <v>0.002488931822081308</v>
+        <v>0.0008092553167177285</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3061854017374168</v>
+        <v>0.1199809045472442</v>
       </c>
       <c r="K16">
-        <v>0.5927086955047116</v>
+        <v>1.885373950580657</v>
       </c>
       <c r="L16">
-        <v>0.1894282165934129</v>
+        <v>0.4036983122080358</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.604389945509809</v>
+        <v>2.456428184833129</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.140760556780435</v>
+        <v>1.334680032915287</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1941125211072858</v>
+        <v>0.103796688967833</v>
       </c>
       <c r="E17">
-        <v>0.2236281609976789</v>
+        <v>0.08734221684447974</v>
       </c>
       <c r="F17">
-        <v>1.862698833153729</v>
+        <v>0.9841194470358374</v>
       </c>
       <c r="G17">
-        <v>0.002489980064645471</v>
+        <v>0.0008109867954930468</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3071313878290791</v>
+        <v>0.121767354681463</v>
       </c>
       <c r="K17">
-        <v>0.569493656745351</v>
+        <v>1.809321259921035</v>
       </c>
       <c r="L17">
-        <v>0.1846424984210984</v>
+        <v>0.3867918976623912</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.610498582987162</v>
+        <v>2.431985775386607</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.133260894270251</v>
+        <v>1.304316434102645</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1939526759982186</v>
+        <v>0.1025014916645191</v>
       </c>
       <c r="E18">
-        <v>0.2239265513685194</v>
+        <v>0.08759962018361023</v>
       </c>
       <c r="F18">
-        <v>1.863832826850867</v>
+        <v>0.9777857966565335</v>
       </c>
       <c r="G18">
-        <v>0.002490591555139481</v>
+        <v>0.0008119897427654093</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3076838966618594</v>
+        <v>0.1228091727151686</v>
       </c>
       <c r="K18">
-        <v>0.5561351351332462</v>
+        <v>1.765630240620879</v>
       </c>
       <c r="L18">
-        <v>0.1818930397903671</v>
+        <v>0.3770853712730684</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.614236996486994</v>
+        <v>2.418496313042681</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.130728439952264</v>
+        <v>1.294053546701235</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1938995525513292</v>
+        <v>0.1020646044499145</v>
       </c>
       <c r="E19">
-        <v>0.22402870011231</v>
+        <v>0.08768858461034768</v>
       </c>
       <c r="F19">
-        <v>1.864231584673234</v>
+        <v>0.9756761561159806</v>
       </c>
       <c r="G19">
-        <v>0.002490800068810766</v>
+        <v>0.000812330548695597</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3078724105841593</v>
+        <v>0.1231643560783908</v>
       </c>
       <c r="K19">
-        <v>0.5516111887168336</v>
+        <v>1.750845618588585</v>
       </c>
       <c r="L19">
-        <v>0.1809626685529082</v>
+        <v>0.3738017844930539</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.615541385406971</v>
+        <v>2.414024891053657</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.142151802527138</v>
+        <v>1.340308195428975</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1941425782083641</v>
+        <v>0.1040371884710467</v>
       </c>
       <c r="E20">
-        <v>0.2235734669217955</v>
+        <v>0.08729544150875057</v>
       </c>
       <c r="F20">
-        <v>1.862495988899838</v>
+        <v>0.9853083600578856</v>
       </c>
       <c r="G20">
-        <v>0.002489867591000033</v>
+        <v>0.0008108017509135257</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.307029816532447</v>
+        <v>0.1215757007064573</v>
       </c>
       <c r="K20">
-        <v>0.5719655477860783</v>
+        <v>1.817411622239575</v>
       </c>
       <c r="L20">
-        <v>0.1851516205619959</v>
+        <v>0.3885897582893421</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.6098250335844</v>
+        <v>2.434528356039266</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.181003202970885</v>
+        <v>1.497030985568273</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1950282604252251</v>
+        <v>0.1107832132278901</v>
       </c>
       <c r="E21">
-        <v>0.2221216660907093</v>
+        <v>0.08610275362451247</v>
       </c>
       <c r="F21">
-        <v>1.857694193064006</v>
+        <v>1.02018965817328</v>
       </c>
       <c r="G21">
-        <v>0.002486836838092315</v>
+        <v>0.0008057482482384831</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3042991532131749</v>
+        <v>0.1164099594432004</v>
       </c>
       <c r="K21">
-        <v>0.6402818392657537</v>
+        <v>2.041737647318712</v>
       </c>
       <c r="L21">
-        <v>0.1992632731487873</v>
+        <v>0.4384967085362632</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.593305646793254</v>
+        <v>2.510360586914686</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.206742254273252</v>
+        <v>1.600537830037524</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1956583705378492</v>
+        <v>0.1152853130961446</v>
       </c>
       <c r="E22">
-        <v>0.221230621283425</v>
+        <v>0.0854214622358942</v>
       </c>
       <c r="F22">
-        <v>1.855322727215153</v>
+        <v>1.044981215795104</v>
       </c>
       <c r="G22">
-        <v>0.002484931960525472</v>
+        <v>0.0008025047179896844</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3025891620782994</v>
+        <v>0.1131645095092191</v>
       </c>
       <c r="K22">
-        <v>0.6848732086495772</v>
+        <v>2.188958715012888</v>
       </c>
       <c r="L22">
-        <v>0.208512964150259</v>
+        <v>0.4713050110322854</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.584511451907929</v>
+        <v>2.565432430799774</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.192973256827344</v>
+        <v>1.545188821054865</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1953173955717133</v>
+        <v>0.1128736040422496</v>
       </c>
       <c r="E23">
-        <v>0.2217009094488738</v>
+        <v>0.08577592058944106</v>
       </c>
       <c r="F23">
-        <v>1.85651829871135</v>
+        <v>1.031559159657746</v>
       </c>
       <c r="G23">
-        <v>0.002485941705102353</v>
+        <v>0.000804230609174109</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3034949937305118</v>
+        <v>0.1148845445558901</v>
       </c>
       <c r="K23">
-        <v>0.6610794485155793</v>
+        <v>2.110320859084226</v>
       </c>
       <c r="L23">
-        <v>0.2035738269920984</v>
+        <v>0.4537753550359866</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.589021899773314</v>
+        <v>2.53551289811503</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.141522707879318</v>
+        <v>1.337763416254433</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1941289715645595</v>
+        <v>0.1039284302331538</v>
       </c>
       <c r="E24">
-        <v>0.2235981734226726</v>
+        <v>0.08731655519557435</v>
       </c>
       <c r="F24">
-        <v>1.862587424815302</v>
+        <v>0.9847702198906632</v>
       </c>
       <c r="G24">
-        <v>0.002489918412869226</v>
+        <v>0.0008108853862522859</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3070757099734607</v>
+        <v>0.1216623015180245</v>
       </c>
       <c r="K24">
-        <v>0.5708480428164364</v>
+        <v>1.813753869176821</v>
       </c>
       <c r="L24">
-        <v>0.1849214404661694</v>
+        <v>0.387776904768188</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.610128839796801</v>
+        <v>2.433377107101762</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.087537274237974</v>
+        <v>1.118020775885611</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1930689250258695</v>
+        <v>0.09464847423646461</v>
       </c>
       <c r="E25">
-        <v>0.2258936782250114</v>
+        <v>0.08938326950822884</v>
       </c>
       <c r="F25">
-        <v>1.8724296864252</v>
+        <v>0.9421212337500009</v>
       </c>
       <c r="G25">
-        <v>0.002494535804938814</v>
+        <v>0.0008183348585566469</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3112594535078248</v>
+        <v>0.1295182066452742</v>
       </c>
       <c r="K25">
-        <v>0.4732981652443016</v>
+        <v>1.495792928056176</v>
       </c>
       <c r="L25">
-        <v>0.1649232895029655</v>
+        <v>0.3172423476958386</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.641494119915365</v>
+        <v>2.344745822797051</v>
       </c>
     </row>
   </sheetData>
